--- a/data/trans_bre/LAWTONB_2R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.115829771462544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.53653630373942</v>
+        <v>10.53653630373943</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.0004922946350484617</v>
@@ -649,7 +649,7 @@
         <v>0.3438740122315818</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4304384470077337</v>
+        <v>0.4304384470077341</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.823070662608822</v>
+        <v>-8.873976215279455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.078057412861595</v>
+        <v>-1.075700578424144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.766147251868291</v>
+        <v>-2.892880426696039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.368818304267609</v>
+        <v>3.040307639959507</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4522254224089143</v>
+        <v>-0.450759569824359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05934125496114323</v>
+        <v>-0.04987933594060387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1262501995214438</v>
+        <v>-0.1422810835402967</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1195560204564168</v>
+        <v>0.1107909517125049</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.337081419606367</v>
+        <v>9.327936527607356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.8081419175162</v>
+        <v>18.73581219503769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.15969390585244</v>
+        <v>14.42722368125296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.53857129615686</v>
+        <v>17.93936139110904</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6910525024531621</v>
+        <v>0.780136040746584</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.437281176884545</v>
+        <v>1.43778087341932</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.120787149125507</v>
+        <v>1.080374781526488</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8772169259122958</v>
+        <v>0.9022534973718112</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.446019242599839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.72575426879997</v>
+        <v>11.72575426879996</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4842573177048609</v>
@@ -749,7 +749,7 @@
         <v>0.514995090731562</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.660497641255073</v>
+        <v>0.6604976412550728</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.165068081803474</v>
+        <v>-1.139164558384954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.338865176150544</v>
+        <v>-2.442524876725134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3726141479765687</v>
+        <v>-0.4690749180351038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.676295614907652</v>
+        <v>5.61110367458452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1098235792087545</v>
+        <v>-0.0820991055036929</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.112611714144129</v>
+        <v>-0.08213977925461532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02057188588357007</v>
+        <v>-0.04631221063652707</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2622512825242217</v>
+        <v>0.2416980886565276</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.49492678995278</v>
+        <v>15.00560157575465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.74826698811557</v>
+        <v>18.31063552565444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.18879370589795</v>
+        <v>16.2478841952185</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.74971573387825</v>
+        <v>17.65362629904742</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.590588607803896</v>
+        <v>1.651986316312602</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.979283288953628</v>
+        <v>1.02922773929075</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.395668617040708</v>
+        <v>1.266613007764196</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.229641642514586</v>
+        <v>1.252752218160403</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.877386407609384</v>
+        <v>-5.641913350111081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.816249611869403</v>
+        <v>-5.727246031157079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.972950927997837</v>
+        <v>5.082401405291756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.244961383910336</v>
+        <v>10.17909398890229</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4026530915316313</v>
+        <v>-0.4035351568176652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1599276406368566</v>
+        <v>-0.1991241653109873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3280468330887348</v>
+        <v>0.3040841186956138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7136605722430724</v>
+        <v>0.7279194839745754</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.11131631246207</v>
+        <v>10.98778550556112</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.4654180829409</v>
+        <v>19.29172813231388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.16291393291917</v>
+        <v>25.78086647104218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.71174237289879</v>
+        <v>22.88252179497882</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.011231791894094</v>
+        <v>1.535683460500167</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.283376857614702</v>
+        <v>1.365541127617775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.107499963813835</v>
+        <v>3.224817140747148</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.87473195636869</v>
+        <v>3.909843610722914</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.359916011590333</v>
+        <v>3.161153346527844</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.43511002736799</v>
+        <v>-9.125610014462451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.220519641775368</v>
+        <v>-1.850352860236529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.853557529112256</v>
+        <v>6.250475971045678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3139598327797176</v>
+        <v>0.216369803271986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3970111509622327</v>
+        <v>-0.354084405030003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09654521614763768</v>
+        <v>-0.1240972596373459</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3533619983244306</v>
+        <v>0.3856023963451318</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.45202442321014</v>
+        <v>18.4488132275374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.458013757994082</v>
+        <v>7.626433110467265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.87599760598448</v>
+        <v>12.8621209739325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.76959221498552</v>
+        <v>17.4196772300411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.943409060346697</v>
+        <v>2.780280837735398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4929661050747006</v>
+        <v>0.5271397952969467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.339108968844904</v>
+        <v>1.276837090786048</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.554362418261838</v>
+        <v>1.715156617895587</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.438523573247353</v>
+        <v>1.270482358441453</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2486888316619936</v>
+        <v>0.5365458909883117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.927929674900042</v>
+        <v>4.095298797062812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.160147893858351</v>
+        <v>9.247453928240168</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09513698175247624</v>
+        <v>0.06457120237403928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-5.956334141764177e-05</v>
+        <v>0.02401566151744887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2228227702023939</v>
+        <v>0.2398049263700064</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5143355594510063</v>
+        <v>0.516864225768322</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.820528045449372</v>
+        <v>9.954366500011009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.25105678351329</v>
+        <v>10.22998309355016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.80402596940563</v>
+        <v>13.04206810176698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.50158113595875</v>
+        <v>15.61704906035429</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.911057014602488</v>
+        <v>0.9146275069533906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5538921736061692</v>
+        <v>0.5769737194381845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.004796323488993</v>
+        <v>0.991315759589659</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.076004491323109</v>
+        <v>1.110719988764022</v>
       </c>
     </row>
     <row r="19">
